--- a/SQL/240801_SQL評量_正規化題目.xlsx
+++ b/SQL/240801_SQL評量_正規化題目.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C2FE5-3016-45B6-9DC5-0AF88F007BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EA38BA-A585-4AA1-BAD2-1066CF413A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="4" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="6" r:id="rId2"/>
-    <sheet name="設施資訊" sheetId="4" r:id="rId3"/>
-    <sheet name="管轄村里資訊" sheetId="3" r:id="rId4"/>
-    <sheet name="管轄警察分局資訊" sheetId="5" r:id="rId5"/>
+    <sheet name="FAC_設施資訊" sheetId="4" r:id="rId3"/>
+    <sheet name="VLG_管轄村里資訊" sheetId="3" r:id="rId4"/>
+    <sheet name="POL_管轄警察分局資訊" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -852,10 +852,6 @@
     <t>A12</t>
   </si>
   <si>
-    <t>設施地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>容人數量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1257,6 +1253,287 @@
   </si>
   <si>
     <t>VARCHAR(2 BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FK)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8 BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> POL_TEL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">分局地址 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POL_ADD</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POL_NM</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> POL_NB</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里辦公室電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VLG_TEL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VLG_ADD</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VLG_NM</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VLG_NB</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  POL_NB</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地下樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FCT_FL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>容人數量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FCT_POP</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址 FCT_ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FCT_BUD</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號 FCT_NB</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1306,13 +1583,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1348,7 +1618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,14 +1643,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1740,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1760,43 +2033,43 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1818,8 +2091,8 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>89</v>
+      <c r="G3" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="H3" s="2">
         <v>100</v>
@@ -1859,8 +2132,8 @@
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>88</v>
+      <c r="G4" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="H4" s="2">
         <v>3142</v>
@@ -1900,8 +2173,8 @@
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>87</v>
+      <c r="G5" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="H5" s="2">
         <v>1072</v>
@@ -1941,8 +2214,8 @@
       <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>86</v>
+      <c r="G6" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H6" s="2">
         <v>32</v>
@@ -1983,7 +2256,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5">
         <v>106</v>
@@ -2024,7 +2297,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="5">
         <v>26</v>
@@ -2065,7 +2338,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3">
         <v>2038</v>
@@ -2106,7 +2379,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3">
         <v>128</v>
@@ -2146,8 +2419,8 @@
       <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>81</v>
+      <c r="G11" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="2">
         <v>353</v>
@@ -2187,8 +2460,8 @@
       <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>80</v>
+      <c r="G12" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="2">
         <v>501</v>
@@ -2228,8 +2501,8 @@
       <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>79</v>
+      <c r="G13" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H13" s="2">
         <v>194</v>
@@ -2269,8 +2542,8 @@
       <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>78</v>
+      <c r="G14" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="H14" s="2">
         <v>78</v>
@@ -2301,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D80E68-513A-4844-B2FF-B9054D50B72A}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2325,13 +2598,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2476,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C491E59-33F0-4E7F-8586-B3100C76707F}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2485,60 +2758,69 @@
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2550,20 +2832,24 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="2" t="s">
-        <v>64</v>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>89</v>
+      <c r="D5" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -2571,20 +2857,24 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="2" t="s">
-        <v>65</v>
+      <c r="B6" s="2">
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>88</v>
+      <c r="D6" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>3142</v>
@@ -2592,20 +2882,24 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="2" t="s">
-        <v>66</v>
+      <c r="B7" s="2">
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>87</v>
+      <c r="D7" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>1072</v>
@@ -2613,20 +2907,24 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="2" t="s">
-        <v>67</v>
+      <c r="B8" s="2">
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>86</v>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>32</v>
@@ -2634,20 +2932,24 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="2" t="s">
-        <v>68</v>
+      <c r="B9" s="2">
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="5">
         <v>106</v>
@@ -2655,20 +2957,24 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="2" t="s">
-        <v>69</v>
+      <c r="B10" s="2">
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5">
         <v>26</v>
@@ -2676,20 +2982,24 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2" t="s">
-        <v>70</v>
+      <c r="B11" s="2">
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5">
         <v>2038</v>
@@ -2697,20 +3007,24 @@
       <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="2" t="s">
-        <v>71</v>
+      <c r="B12" s="2">
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5">
         <v>128</v>
@@ -2718,20 +3032,24 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="2" t="s">
-        <v>72</v>
+      <c r="B13" s="2">
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>81</v>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>353</v>
@@ -2739,20 +3057,24 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="2" t="s">
-        <v>73</v>
+      <c r="B14" s="2">
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>80</v>
+      <c r="D14" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E14" s="2">
         <v>501</v>
@@ -2760,20 +3082,24 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2" t="s">
-        <v>74</v>
+      <c r="B15" s="2">
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>79</v>
+      <c r="D15" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E15" s="2">
         <v>194</v>
@@ -2781,20 +3107,24 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="2" t="s">
-        <v>75</v>
+      <c r="B16" s="2">
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>78</v>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E16" s="2">
         <v>78</v>
@@ -2802,8 +3132,12 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -2821,51 +3155,51 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3021,52 +3355,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD200B0-1EB8-4D85-A3B3-2D4A7FDA2FA6}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:5">

--- a/SQL/240801_SQL評量_正規化題目.xlsx
+++ b/SQL/240801_SQL評量_正規化題目.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EA38BA-A585-4AA1-BAD2-1066CF413A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D57F8-9B42-45CE-9882-3B4710FFBDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="4" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="2295" yWindow="1440" windowWidth="16320" windowHeight="14160" firstSheet="2" activeTab="2" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="6" r:id="rId2"/>
-    <sheet name="FAC_設施資訊" sheetId="4" r:id="rId3"/>
-    <sheet name="VLG_管轄村里資訊" sheetId="3" r:id="rId4"/>
-    <sheet name="POL_管轄警察分局資訊" sheetId="5" r:id="rId5"/>
+    <sheet name="FACILITY_設施資訊" sheetId="4" r:id="rId3"/>
+    <sheet name="VILLAGE_管轄村里資訊" sheetId="3" r:id="rId4"/>
+    <sheet name="POLICE_管轄警察分局資訊" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1646,14 +1646,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2749,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C491E59-33F0-4E7F-8586-B3100C76707F}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2767,18 +2767,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2787,13 +2787,13 @@
       <c r="E2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="2"/>
@@ -2832,10 +2832,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="2"/>
@@ -3155,7 +3155,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3167,24 +3167,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD200B0-1EB8-4D85-A3B3-2D4A7FDA2FA6}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3368,24 +3368,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>97</v>
       </c>
     </row>
